--- a/dtpu_configurations/only_integer8/120mhz/mxu_4x4/power.xlsx
+++ b/dtpu_configurations/only_integer8/120mhz/mxu_4x4/power.xlsx
@@ -175,34 +175,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.04657500609755516</v>
+        <v>0.04854227229952812</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.023800918832421303</v>
+        <v>0.0207083560526371</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.016551759093999863</v>
+        <v>0.01576191745698452</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.010528458282351494</v>
+        <v>0.009954811073839664</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>3.7393772799987346E-5</v>
+        <v>3.533165727276355E-5</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>0.002755634719505906</v>
+        <v>0.0026054931804537773</v>
       </c>
       <c r="H2" t="n" s="4">
-        <v>0.0024250000715255737</v>
+        <v>0.002292873105034232</v>
       </c>
       <c r="I2" t="n" s="4">
-        <v>1.263510823249817</v>
+        <v>1.2630733251571655</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12687554955482483</v>
+        <v>0.12684966623783112</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4930769205093384</v>
+        <v>1.4898395538330078</v>
       </c>
     </row>
   </sheetData>
